--- a/Giuseppe/project 6/lab6 nuevo.xlsx
+++ b/Giuseppe/project 6/lab6 nuevo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Giuseppe\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Giuseppe\Documents\.magistrale\secondo anno\Process\Final\project 6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F487156E-F814-473B-9E53-57239C348864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BA830F4-A426-4B7F-9EAC-47FE3406028F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25710" yWindow="-110" windowWidth="25820" windowHeight="16220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="H2=2H" sheetId="1" r:id="rId1"/>
@@ -343,9 +343,6 @@
     <t>Primitive</t>
   </si>
   <si>
-    <t>3s 2p</t>
-  </si>
-  <si>
     <t xml:space="preserve">3s2p1d </t>
   </si>
   <si>
@@ -400,10 +397,13 @@
     <t>4s</t>
   </si>
   <si>
-    <t>11s6p</t>
-  </si>
-  <si>
-    <t>10s5p</t>
+    <t>5s 2p</t>
+  </si>
+  <si>
+    <t>12s8p1d</t>
+  </si>
+  <si>
+    <t>13s5p</t>
   </si>
 </sst>
 </file>
@@ -413,11 +413,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00000000"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="aptos narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="aptos narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -632,7 +639,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="77">
+  <borders count="78">
     <border>
       <left/>
       <right/>
@@ -1606,507 +1613,526 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="172">
+  <cellXfs count="174">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="57" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="57" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2406,8 +2432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J993"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2476,17 +2502,17 @@
         <v>47</v>
       </c>
       <c r="I5" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="J5" s="48" t="s">
-        <v>73</v>
-      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="173" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="171" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="7" t="s">
@@ -2495,10 +2521,10 @@
       <c r="D6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="61" t="s">
+      <c r="E6" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="64">
+      <c r="F6" s="62">
         <v>0</v>
       </c>
       <c r="G6" s="49">
@@ -2509,18 +2535,18 @@
         <f>E14*G6</f>
         <v>4</v>
       </c>
-      <c r="I6" s="171" t="s">
-        <v>74</v>
-      </c>
-      <c r="J6" s="166" t="s">
-        <v>66</v>
+      <c r="I6" s="167" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" s="162" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="173" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="172">
         <v>6</v>
       </c>
       <c r="C7" s="6">
@@ -2532,26 +2558,26 @@
       <c r="E7" s="6">
         <v>1</v>
       </c>
-      <c r="F7" s="62">
+      <c r="F7" s="60">
         <v>1</v>
       </c>
       <c r="G7" s="54">
         <f>B7*B14+2*C14+3</f>
         <v>5</v>
       </c>
-      <c r="H7" s="63">
+      <c r="H7" s="61">
         <f>E14*G7</f>
         <v>10</v>
       </c>
-      <c r="I7" s="166" t="s">
-        <v>75</v>
-      </c>
-      <c r="J7" s="166" t="s">
-        <v>67</v>
+      <c r="I7" s="162" t="s">
+        <v>74</v>
+      </c>
+      <c r="J7" s="162" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="170" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="52"/>
@@ -2567,15 +2593,15 @@
         <f>$E$14*G8</f>
         <v>10</v>
       </c>
-      <c r="I8" s="166" t="s">
-        <v>75</v>
-      </c>
-      <c r="J8" s="166" t="s">
-        <v>79</v>
+      <c r="I8" s="162" t="s">
+        <v>74</v>
+      </c>
+      <c r="J8" s="162" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="170" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="52"/>
@@ -2583,23 +2609,23 @@
       <c r="D9" s="52"/>
       <c r="E9" s="52"/>
       <c r="F9" s="52"/>
-      <c r="G9" s="59">
+      <c r="G9" s="57">
         <f>3*H16+2*H17</f>
         <v>9</v>
       </c>
       <c r="H9" s="49">
-        <f t="shared" ref="H9:H10" si="0">$E$14*G9</f>
+        <f t="shared" ref="H9" si="0">$E$14*G9</f>
         <v>18</v>
       </c>
-      <c r="I9" s="166" t="s">
-        <v>76</v>
-      </c>
-      <c r="J9" s="59" t="s">
-        <v>61</v>
+      <c r="I9" s="162" t="s">
+        <v>75</v>
+      </c>
+      <c r="J9" s="168" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="170" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="52"/>
@@ -2615,10 +2641,10 @@
         <f>$E$14*G10</f>
         <v>46</v>
       </c>
-      <c r="I10" s="166" t="s">
+      <c r="I10" s="162" t="s">
         <v>38</v>
       </c>
-      <c r="J10" s="59" t="s">
+      <c r="J10" s="57" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2664,19 +2690,19 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="104" t="s">
+      <c r="B15" s="102" t="s">
         <v>12</v>
       </c>
       <c r="D15" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="G15" s="119" t="s">
+      <c r="G15" s="117" t="s">
         <v>58</v>
       </c>
-      <c r="H15" s="120" t="s">
+      <c r="H15" s="118" t="s">
         <v>59</v>
       </c>
-      <c r="I15" s="121" t="s">
+      <c r="I15" s="119" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2684,7 +2710,7 @@
       <c r="A16" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="105">
+      <c r="B16" s="103">
         <f>B14*B6+C14*(D6+C6)</f>
         <v>3</v>
       </c>
@@ -2693,13 +2719,13 @@
         <v>6</v>
       </c>
       <c r="E16" s="52"/>
-      <c r="G16" s="116" t="s">
+      <c r="G16" s="114" t="s">
         <v>35</v>
       </c>
-      <c r="H16" s="113">
+      <c r="H16" s="111">
         <v>1</v>
       </c>
-      <c r="I16" s="110">
+      <c r="I16" s="108">
         <v>3</v>
       </c>
     </row>
@@ -2707,22 +2733,22 @@
       <c r="A17" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="106">
+      <c r="B17" s="104">
         <f>B14*B7+C14*(C7+D7)+3*F7</f>
         <v>7</v>
       </c>
-      <c r="D17" s="98">
+      <c r="D17" s="96">
         <f>2*B17</f>
         <v>14</v>
       </c>
       <c r="E17" s="52"/>
-      <c r="G17" s="117" t="s">
+      <c r="G17" s="115" t="s">
         <v>36</v>
       </c>
-      <c r="H17" s="114">
+      <c r="H17" s="112">
         <v>3</v>
       </c>
-      <c r="I17" s="111">
+      <c r="I17" s="109">
         <v>1</v>
       </c>
     </row>
@@ -2730,22 +2756,22 @@
       <c r="A18" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="107">
+      <c r="B18" s="105">
         <f>2*$I$16+1*$I$17</f>
         <v>7</v>
       </c>
-      <c r="D18" s="109">
+      <c r="D18" s="107">
         <f>2*B18</f>
         <v>14</v>
       </c>
       <c r="E18" s="52"/>
-      <c r="G18" s="118" t="s">
+      <c r="G18" s="116" t="s">
         <v>37</v>
       </c>
-      <c r="H18" s="115">
+      <c r="H18" s="113">
         <v>5</v>
       </c>
-      <c r="I18" s="112">
+      <c r="I18" s="110">
         <v>6</v>
       </c>
     </row>
@@ -2753,11 +2779,11 @@
       <c r="A19" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="107">
-        <f>3*$I$16+2*$I$17</f>
+      <c r="B19" s="105">
+        <f>5*H16+2*H17</f>
         <v>11</v>
       </c>
-      <c r="D19" s="109">
+      <c r="D19" s="107">
         <f t="shared" ref="D19:D20" si="1">2*B19</f>
         <v>22</v>
       </c>
@@ -2767,11 +2793,11 @@
       <c r="A20" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="108">
+      <c r="B20" s="106">
         <f>4*$I$16+3*$I$17+2*6</f>
         <v>27</v>
       </c>
-      <c r="D20" s="58">
+      <c r="D20" s="56">
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
@@ -2806,7 +2832,7 @@
       <c r="A24" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="85" t="s">
+      <c r="B24" s="83" t="s">
         <v>13</v>
       </c>
       <c r="C24" s="28">
@@ -2834,7 +2860,7 @@
       <c r="A25" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="86" t="s">
+      <c r="B25" s="84" t="s">
         <v>29</v>
       </c>
       <c r="C25" s="3">
@@ -2862,7 +2888,7 @@
       <c r="A26" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="86" t="s">
+      <c r="B26" s="84" t="s">
         <v>19</v>
       </c>
       <c r="C26" s="3">
@@ -2890,7 +2916,7 @@
       <c r="A27" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="87" t="s">
+      <c r="B27" s="85" t="s">
         <v>20</v>
       </c>
       <c r="C27" s="3">
@@ -2945,10 +2971,10 @@
       <c r="A29" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="100" t="s">
+      <c r="B29" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="103">
+      <c r="C29" s="101">
         <f>0.010185-1.17060138011</f>
         <v>-1.16041638011</v>
       </c>
@@ -2960,11 +2986,11 @@
         <f t="shared" si="5"/>
         <v>0.16579438011000003</v>
       </c>
-      <c r="F29" s="68">
+      <c r="F29" s="66">
         <f t="shared" ref="F29:F31" si="6">E29*628.5095</f>
         <v>104.20334294574606</v>
       </c>
-      <c r="G29" s="70">
+      <c r="G29" s="68">
         <f t="shared" si="4"/>
         <v>1.0033429457460556</v>
       </c>
@@ -2973,10 +2999,10 @@
       <c r="A30" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="101" t="s">
+      <c r="B30" s="99" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="76">
+      <c r="C30" s="74">
         <f>-1.17850460568+0.010169</f>
         <v>-1.1683356056799998</v>
       </c>
@@ -2988,11 +3014,11 @@
         <f t="shared" si="5"/>
         <v>0.1677896056799999</v>
       </c>
-      <c r="F30" s="69">
+      <c r="F30" s="67">
         <f t="shared" si="6"/>
         <v>105.4573611711339</v>
       </c>
-      <c r="G30" s="71">
+      <c r="G30" s="69">
         <f t="shared" si="4"/>
         <v>2.2573611711338941</v>
       </c>
@@ -3001,10 +3027,10 @@
       <c r="A31" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="101" t="s">
+      <c r="B31" s="99" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="76">
+      <c r="C31" s="74">
         <f>0.009953-1.17351057743</f>
         <v>-1.16355757743</v>
       </c>
@@ -3016,11 +3042,11 @@
         <f t="shared" si="5"/>
         <v>0.16104157743000003</v>
       </c>
-      <c r="F31" s="69">
+      <c r="F31" s="67">
         <f t="shared" si="6"/>
         <v>101.2161613097406</v>
       </c>
-      <c r="G31" s="71">
+      <c r="G31" s="69">
         <f t="shared" si="4"/>
         <v>1.9838386902594038</v>
       </c>
@@ -3029,10 +3055,10 @@
       <c r="A32" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="102" t="s">
+      <c r="B32" s="100" t="s">
         <v>20</v>
       </c>
-      <c r="C32" s="76">
+      <c r="C32" s="74">
         <f>-1.17394766295+0.009928</f>
         <v>-1.1640196629500001</v>
       </c>
@@ -3044,47 +3070,47 @@
         <f t="shared" si="5"/>
         <v>0.16070566295000011</v>
       </c>
-      <c r="F32" s="69">
+      <c r="F32" s="67">
         <f>E32*627.503</f>
         <v>100.84328561811392</v>
       </c>
-      <c r="G32" s="71">
+      <c r="G32" s="69">
         <f t="shared" si="4"/>
         <v>2.3567143818860785</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="155" t="s">
+      <c r="A33" s="152" t="s">
         <v>30</v>
       </c>
-      <c r="B33" s="156" t="s">
+      <c r="B33" s="153" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="157">
+      <c r="C33" s="154">
         <v>-1.1699679999999999</v>
       </c>
-      <c r="D33" s="158">
+      <c r="D33" s="155">
         <f>2*-0.50226</f>
         <v>-1.0045200000000001</v>
       </c>
-      <c r="E33" s="158">
+      <c r="E33" s="155">
         <f t="shared" si="5"/>
         <v>0.16544799999999982</v>
       </c>
-      <c r="F33" s="159">
+      <c r="F33" s="156">
         <f t="shared" ref="F33:F36" si="7">E33*628.5095</f>
         <v>103.98563975599988</v>
       </c>
-      <c r="G33" s="159">
+      <c r="G33" s="156">
         <f t="shared" si="4"/>
         <v>0.78563975599988112</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="66" t="s">
+      <c r="A34" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="88" t="s">
+      <c r="B34" s="86" t="s">
         <v>31</v>
       </c>
       <c r="C34" s="3">
@@ -3112,7 +3138,7 @@
       <c r="A35" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="B35" s="86" t="s">
+      <c r="B35" s="84" t="s">
         <v>29</v>
       </c>
       <c r="C35" s="3">
@@ -3140,7 +3166,7 @@
       <c r="A36" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="B36" s="86" t="s">
+      <c r="B36" s="84" t="s">
         <v>19</v>
       </c>
       <c r="C36" s="3">
@@ -3168,7 +3194,7 @@
       <c r="A37" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="B37" s="86" t="s">
+      <c r="B37" s="84" t="s">
         <v>20</v>
       </c>
       <c r="C37" s="3">
@@ -3193,10 +3219,10 @@
       </c>
     </row>
     <row r="38" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="67" t="s">
+      <c r="A38" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="B38" s="89" t="s">
+      <c r="B38" s="87" t="s">
         <v>21</v>
       </c>
       <c r="C38" s="15">
@@ -3312,10 +3338,10 @@
       <c r="A52" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="B52" s="130" t="s">
+      <c r="B52" s="127" t="s">
         <v>13</v>
       </c>
-      <c r="C52" s="131">
+      <c r="C52" s="128">
         <f>0.01060995-1.12295984</f>
         <v>-1.11234989</v>
       </c>
@@ -3328,11 +3354,11 @@
         <v>0.1199526099999999</v>
       </c>
       <c r="F52" s="28">
-        <f t="shared" ref="F52:F56" si="9">E52*627.503</f>
+        <f t="shared" ref="F52:F55" si="9">E52*627.503</f>
         <v>75.270622632829941</v>
       </c>
-      <c r="G52" s="68">
-        <f t="shared" ref="G52:G66" si="10">ABS(F52-$A$2)</f>
+      <c r="G52" s="66">
+        <f t="shared" ref="G52:G55" si="10">ABS(F52-$A$2)</f>
         <v>27.929377367170062</v>
       </c>
     </row>
@@ -3347,19 +3373,19 @@
         <f>0.01055985-1.13133359</f>
         <v>-1.1207737400000002</v>
       </c>
-      <c r="D53" s="125">
+      <c r="D53" s="3">
         <f>2*-0.49823291</f>
         <v>-0.99646581999999995</v>
       </c>
-      <c r="E53" s="125">
+      <c r="E53" s="3">
         <f t="shared" si="8"/>
         <v>0.12430792000000024</v>
       </c>
-      <c r="F53" s="125">
+      <c r="F53" s="3">
         <f t="shared" si="9"/>
         <v>78.00359272376015</v>
       </c>
-      <c r="G53" s="69">
+      <c r="G53" s="67">
         <f t="shared" si="10"/>
         <v>25.196407276239853</v>
       </c>
@@ -3375,19 +3401,19 @@
         <f>0.01044316-1.12874612</f>
         <v>-1.1183029600000001</v>
       </c>
-      <c r="D54" s="125">
+      <c r="D54" s="3">
         <f>2*-0.4992784</f>
         <v>-0.99855680000000002</v>
       </c>
-      <c r="E54" s="125">
+      <c r="E54" s="3">
         <f t="shared" si="8"/>
         <v>0.11974616000000005</v>
       </c>
-      <c r="F54" s="125">
+      <c r="F54" s="3">
         <f t="shared" si="9"/>
         <v>75.141074638480035</v>
       </c>
-      <c r="G54" s="69">
+      <c r="G54" s="67">
         <f t="shared" si="10"/>
         <v>28.058925361519968</v>
       </c>
@@ -3402,19 +3428,19 @@
       <c r="C55" s="18">
         <v>-1.12882343</v>
       </c>
-      <c r="D55" s="125">
+      <c r="D55" s="3">
         <f>2*-0.49933432</f>
         <v>-0.99866864</v>
       </c>
-      <c r="E55" s="125">
+      <c r="E55" s="3">
         <f t="shared" si="8"/>
         <v>0.13015478999999996</v>
       </c>
-      <c r="F55" s="125">
+      <c r="F55" s="3">
         <f t="shared" si="9"/>
         <v>81.672521189369988</v>
       </c>
-      <c r="G55" s="69">
+      <c r="G55" s="67">
         <f t="shared" si="10"/>
         <v>21.527478810630015</v>
       </c>
@@ -3423,10 +3449,10 @@
       <c r="A56" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="B56" s="122" t="s">
+      <c r="B56" s="120" t="s">
         <v>31</v>
       </c>
-      <c r="C56" s="75">
+      <c r="C56" s="73">
         <f>0.0101781-1.16383957</f>
         <v>-1.1536614699999999</v>
       </c>
@@ -3435,15 +3461,15 @@
         <v>-0.98777329999999997</v>
       </c>
       <c r="E56" s="28">
-        <f>-C56+D56</f>
+        <f t="shared" ref="E56:E63" si="11">-C56+D56</f>
         <v>0.16588816999999989</v>
       </c>
       <c r="F56" s="28">
-        <f t="shared" ref="F56:F58" si="11">E56*628.5095</f>
+        <f t="shared" ref="F56:F58" si="12">E56*628.5095</f>
         <v>104.26229078261493</v>
       </c>
-      <c r="G56" s="123">
-        <f>ABS(F56-$A$2)</f>
+      <c r="G56" s="121">
+        <f t="shared" ref="G56:G63" si="13">ABS(F56-$A$2)</f>
         <v>1.062290782614923</v>
       </c>
     </row>
@@ -3454,63 +3480,63 @@
       <c r="B57" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C57" s="124">
+      <c r="C57" s="122">
         <f>0.01016977-1.1717732</f>
         <v>-1.16160343</v>
       </c>
-      <c r="D57" s="125">
+      <c r="D57" s="3">
         <f>2*-0.49686205</f>
         <v>-0.9937241</v>
       </c>
-      <c r="E57" s="125">
-        <f>-C57+D57</f>
+      <c r="E57" s="3">
+        <f t="shared" si="11"/>
         <v>0.16787932999999999</v>
       </c>
-      <c r="F57" s="125">
-        <f t="shared" si="11"/>
+      <c r="F57" s="3">
+        <f t="shared" si="12"/>
         <v>105.51375375863499</v>
       </c>
-      <c r="G57" s="101">
-        <f>ABS(F57-$A$2)</f>
+      <c r="G57" s="99">
+        <f t="shared" si="13"/>
         <v>2.3137537586349879</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="150" t="s">
+      <c r="A58" s="147" t="s">
         <v>30</v>
       </c>
-      <c r="B58" s="151" t="s">
+      <c r="B58" s="148" t="s">
         <v>19</v>
       </c>
-      <c r="C58" s="152">
+      <c r="C58" s="149">
         <f>0.0099439-1.16684035</f>
         <v>-1.1568964500000001</v>
       </c>
-      <c r="D58" s="153">
+      <c r="D58" s="150">
         <f>2*-0.49785866</f>
         <v>-0.99571732000000002</v>
       </c>
-      <c r="E58" s="153">
-        <f>-C58+D58</f>
+      <c r="E58" s="150">
+        <f t="shared" si="11"/>
         <v>0.16117913000000006</v>
       </c>
-      <c r="F58" s="153">
-        <f t="shared" si="11"/>
+      <c r="F58" s="150">
+        <f t="shared" si="12"/>
         <v>101.30261440673503</v>
       </c>
-      <c r="G58" s="154">
-        <f>ABS(F58-$A$2)</f>
+      <c r="G58" s="151">
+        <f t="shared" si="13"/>
         <v>1.8973855932649712</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="126" t="s">
+      <c r="A59" s="123" t="s">
         <v>30</v>
       </c>
-      <c r="B59" s="127" t="s">
+      <c r="B59" s="124" t="s">
         <v>20</v>
       </c>
-      <c r="C59" s="128">
+      <c r="C59" s="125">
         <f>0.00991603-1.16727311</f>
         <v>-1.1573570799999999</v>
       </c>
@@ -3519,21 +3545,21 @@
         <v>-0.99653963999999995</v>
       </c>
       <c r="E59" s="31">
-        <f>-C59+D59</f>
+        <f t="shared" si="11"/>
         <v>0.16081743999999998</v>
       </c>
       <c r="F59" s="31">
         <f>E59*627.503</f>
         <v>100.91342605231999</v>
       </c>
-      <c r="G59" s="129">
-        <f>ABS(F59-$A$2)</f>
+      <c r="G59" s="126">
+        <f t="shared" si="13"/>
         <v>2.2865739476800115</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="66" t="s">
-        <v>65</v>
+      <c r="A60" s="64" t="s">
+        <v>64</v>
       </c>
       <c r="B60" s="14" t="s">
         <v>31</v>
@@ -3542,26 +3568,26 @@
         <f>0.01037127-1.14025454</f>
         <v>-1.1298832699999999</v>
       </c>
-      <c r="D60" s="125">
+      <c r="D60" s="3">
         <f>2*-0.49619864</f>
         <v>-0.99239728000000005</v>
       </c>
-      <c r="E60" s="125">
-        <f>-C60+D60</f>
+      <c r="E60" s="3">
+        <f t="shared" si="11"/>
         <v>0.13748598999999984</v>
       </c>
-      <c r="F60" s="125">
+      <c r="F60" s="3">
         <f>E60*628.5095</f>
         <v>86.411250831904894</v>
       </c>
-      <c r="G60" s="69">
-        <f>ABS(F60-$A$2)</f>
+      <c r="G60" s="67">
+        <f t="shared" si="13"/>
         <v>16.788749168095109</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="66" t="s">
-        <v>65</v>
+      <c r="A61" s="64" t="s">
+        <v>64</v>
       </c>
       <c r="B61" s="9" t="s">
         <v>29</v>
@@ -3570,26 +3596,26 @@
         <f>0.01050087-1.15766113</f>
         <v>-1.1471602599999999</v>
       </c>
-      <c r="D61" s="125">
+      <c r="D61" s="3">
         <f>2*-0.49823291</f>
         <v>-0.99646581999999995</v>
       </c>
-      <c r="E61" s="125">
-        <f>-C61+D61</f>
+      <c r="E61" s="3">
+        <f t="shared" si="11"/>
         <v>0.15069443999999999</v>
       </c>
-      <c r="F61" s="125">
+      <c r="F61" s="3">
         <f>E61*628.5095</f>
         <v>94.71288713717999</v>
       </c>
-      <c r="G61" s="69">
-        <f>ABS(F61-$A$2)</f>
+      <c r="G61" s="67">
+        <f t="shared" si="13"/>
         <v>8.4871128628200125</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="66" t="s">
-        <v>65</v>
+      <c r="A62" s="64" t="s">
+        <v>64</v>
       </c>
       <c r="B62" s="9" t="s">
         <v>19</v>
@@ -3598,31 +3624,31 @@
         <f>0.01025474-1.15521828</f>
         <v>-1.14496354</v>
       </c>
-      <c r="D62" s="125">
+      <c r="D62" s="3">
         <f>2*-0.49933432</f>
         <v>-0.99866864</v>
       </c>
-      <c r="E62" s="125">
-        <f>-C62+D62</f>
+      <c r="E62" s="3">
+        <f t="shared" si="11"/>
         <v>0.14629490000000001</v>
       </c>
-      <c r="F62" s="125">
+      <c r="F62" s="3">
         <f>E62*628.5095</f>
         <v>91.947734451550005</v>
       </c>
-      <c r="G62" s="69">
-        <f>ABS(F62-$A$2)</f>
+      <c r="G62" s="67">
+        <f t="shared" si="13"/>
         <v>11.252265548449998</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="67" t="s">
-        <v>65</v>
-      </c>
-      <c r="B63" s="132" t="s">
+      <c r="A63" s="65" t="s">
+        <v>64</v>
+      </c>
+      <c r="B63" s="129" t="s">
         <v>20</v>
       </c>
-      <c r="C63" s="133">
+      <c r="C63" s="130">
         <f>-1.15621648+0.01016921</f>
         <v>-1.1460472700000002</v>
       </c>
@@ -3631,15 +3657,15 @@
         <v>-0.99866864</v>
       </c>
       <c r="E63" s="31">
-        <f>-C63+D63</f>
+        <f t="shared" si="11"/>
         <v>0.14737863000000018</v>
       </c>
       <c r="F63" s="31">
         <f>E63*627.503</f>
         <v>92.480532460890117</v>
       </c>
-      <c r="G63" s="95">
-        <f>ABS(F63-$A$2)</f>
+      <c r="G63" s="93">
+        <f t="shared" si="13"/>
         <v>10.719467539109885</v>
       </c>
     </row>
@@ -4582,7 +4608,7 @@
     <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <phoneticPr fontId="22" type="noConversion"/>
+  <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
   <legacyDrawing r:id="rId1"/>
@@ -4594,10 +4620,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44167E2E-E10A-4419-BEF6-42D1E7A76D26}">
-  <dimension ref="A1:O63"/>
+  <dimension ref="A1:L63"/>
   <sheetViews>
-    <sheetView topLeftCell="D3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4616,24 +4642,24 @@
     <col min="12" max="12" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="135" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C1" s="132" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>103.3</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -4642,7 +4668,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
@@ -4670,19 +4696,19 @@
       <c r="I5" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="J5" s="165" t="s">
-        <v>71</v>
-      </c>
-      <c r="K5" s="165" t="s">
+      <c r="J5" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="L5" s="60"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="K5" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" s="58"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="173" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="171" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="7" t="s">
@@ -4709,18 +4735,18 @@
         <f>2*G14</f>
         <v>6</v>
       </c>
-      <c r="J6" s="166" t="s">
-        <v>76</v>
-      </c>
-      <c r="K6" s="166" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="J6" s="162" t="s">
+        <v>75</v>
+      </c>
+      <c r="K6" s="162" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="173" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="172">
         <v>6</v>
       </c>
       <c r="C7" s="6">
@@ -4747,15 +4773,15 @@
         <f>5*G14</f>
         <v>15</v>
       </c>
-      <c r="J7" s="59" t="s">
-        <v>62</v>
-      </c>
-      <c r="K7" s="166" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="J7" s="57" t="s">
+        <v>61</v>
+      </c>
+      <c r="K7" s="162" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="170" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="52"/>
@@ -4763,7 +4789,7 @@
       <c r="D8" s="52"/>
       <c r="E8" s="52"/>
       <c r="F8" s="52"/>
-      <c r="G8" s="59">
+      <c r="G8" s="57">
         <f>5*E14</f>
         <v>20</v>
       </c>
@@ -4771,22 +4797,19 @@
         <f>3*J16+2*J17+1*J18</f>
         <v>14</v>
       </c>
-      <c r="I8" s="59">
+      <c r="I8" s="57">
         <f>5*G14</f>
         <v>15</v>
       </c>
-      <c r="J8" s="59" t="s">
-        <v>62</v>
-      </c>
-      <c r="K8" s="166" t="s">
-        <v>69</v>
-      </c>
-      <c r="O8">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="J8" s="57" t="s">
+        <v>61</v>
+      </c>
+      <c r="K8" s="162" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="170" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="52"/>
@@ -4794,7 +4817,7 @@
       <c r="D9" s="52"/>
       <c r="E9" s="52"/>
       <c r="F9" s="52"/>
-      <c r="G9" s="59">
+      <c r="G9" s="57">
         <f>9*E14</f>
         <v>36</v>
       </c>
@@ -4802,19 +4825,19 @@
         <f>4*J16+3*J17+2*J18</f>
         <v>23</v>
       </c>
-      <c r="I9" s="59">
+      <c r="I9" s="57">
         <f>9*G14</f>
         <v>27</v>
       </c>
-      <c r="J9" s="166" t="s">
+      <c r="J9" s="162" t="s">
         <v>38</v>
       </c>
-      <c r="K9" s="166" t="s">
+      <c r="K9" s="168" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="170" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="52"/>
@@ -4834,14 +4857,14 @@
         <f>23*G14</f>
         <v>69</v>
       </c>
-      <c r="J10" s="59" t="s">
-        <v>63</v>
-      </c>
-      <c r="K10" s="166" t="s">
+      <c r="J10" s="57" t="s">
+        <v>62</v>
+      </c>
+      <c r="K10" s="168" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="52"/>
       <c r="B11" s="52"/>
       <c r="C11" s="52"/>
@@ -4852,7 +4875,7 @@
       <c r="H11" s="52"/>
       <c r="I11" s="52"/>
     </row>
-    <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="52"/>
       <c r="B12" s="50" t="s">
         <v>44</v>
@@ -4871,7 +4894,7 @@
       <c r="H12" s="52"/>
       <c r="I12" s="52"/>
     </row>
-    <row r="13" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="52"/>
       <c r="B13" s="38" t="s">
         <v>2</v>
@@ -4894,7 +4917,7 @@
       <c r="H13" s="52"/>
       <c r="I13" s="52"/>
     </row>
-    <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="52"/>
       <c r="B14" s="45">
         <f>1</f>
@@ -4909,18 +4932,18 @@
       <c r="E14" s="47">
         <v>4</v>
       </c>
-      <c r="F14" s="65">
+      <c r="F14" s="63">
         <v>0</v>
       </c>
-      <c r="G14" s="65">
+      <c r="G14" s="63">
         <v>3</v>
       </c>
       <c r="H14" s="52"/>
       <c r="I14" s="52"/>
     </row>
-    <row r="15" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="52"/>
-      <c r="B15" s="44" t="s">
+      <c r="B15" s="55" t="s">
         <v>53</v>
       </c>
       <c r="C15" s="52"/>
@@ -4933,155 +4956,146 @@
       </c>
       <c r="G15" s="52"/>
       <c r="H15" s="52"/>
-      <c r="I15" s="119" t="s">
+      <c r="I15" s="117" t="s">
         <v>58</v>
       </c>
-      <c r="J15" s="119" t="s">
+      <c r="J15" s="117" t="s">
         <v>59</v>
       </c>
-      <c r="K15" s="169" t="s">
+      <c r="K15" s="165" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
+    <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="56">
+      <c r="B16" s="169">
         <f>B14*B6+C14*(D6+C6)</f>
         <v>15</v>
       </c>
-      <c r="C16" s="164"/>
-      <c r="D16" s="57">
+      <c r="C16" s="161"/>
+      <c r="D16" s="49">
         <f>D14*B6+E14*(D6+C6)</f>
         <v>12</v>
       </c>
       <c r="E16" s="52"/>
-      <c r="F16" s="57">
+      <c r="F16" s="49">
         <f>F14*B6+G14*(D6+C6)</f>
         <v>9</v>
       </c>
       <c r="G16" s="52"/>
       <c r="H16" s="52"/>
-      <c r="I16" s="116" t="s">
+      <c r="I16" s="114" t="s">
         <v>35</v>
       </c>
-      <c r="J16" s="113">
+      <c r="J16" s="111">
         <v>1</v>
       </c>
-      <c r="K16" s="111">
-        <v>3</v>
-      </c>
-      <c r="L16" s="111">
+      <c r="K16" s="109">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
+    <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="43">
+      <c r="B17" s="170">
         <f>B14*B7+C14*(C7+D7)+6*F7+4*E7</f>
         <v>32</v>
       </c>
       <c r="C17" s="52"/>
-      <c r="D17" s="58">
+      <c r="D17" s="49">
         <f>7*E14</f>
         <v>28</v>
       </c>
       <c r="E17" s="52"/>
-      <c r="F17" s="58">
+      <c r="F17" s="49">
         <f>7*G14</f>
         <v>21</v>
       </c>
       <c r="G17" s="52"/>
       <c r="H17" s="52"/>
-      <c r="I17" s="117" t="s">
+      <c r="I17" s="115" t="s">
         <v>36</v>
       </c>
-      <c r="J17" s="114">
+      <c r="J17" s="112">
         <v>3</v>
       </c>
-      <c r="K17" s="111">
-        <v>1</v>
-      </c>
-      <c r="L17" s="111">
+      <c r="K17" s="109">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="52">
-        <f>9*L16+4*L17</f>
+      <c r="B18" s="49">
+        <f>9*K16+4*K17</f>
         <v>33</v>
       </c>
-      <c r="D18" s="52">
+      <c r="D18" s="49">
         <f>7*4</f>
         <v>28</v>
       </c>
       <c r="E18" s="52"/>
-      <c r="F18" s="52">
+      <c r="F18" s="49">
         <f>7*3</f>
         <v>21</v>
       </c>
       <c r="G18" s="52"/>
       <c r="H18" s="52"/>
-      <c r="I18" s="118" t="s">
+      <c r="I18" s="116" t="s">
         <v>37</v>
       </c>
-      <c r="J18" s="114">
+      <c r="J18" s="112">
         <v>5</v>
       </c>
-      <c r="K18" s="111">
-        <v>6</v>
-      </c>
-      <c r="L18" s="111">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K18" s="109">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="52">
-        <f>10*L16+5*L17</f>
-        <v>40</v>
-      </c>
-      <c r="D19" s="52">
+      <c r="B19" s="49">
+        <f>13*K16+5*K17</f>
+        <v>43</v>
+      </c>
+      <c r="D19" s="49">
         <f>11*4</f>
         <v>44</v>
       </c>
       <c r="E19" s="52"/>
-      <c r="F19" s="52">
+      <c r="F19" s="49">
         <f>11*3</f>
         <v>33</v>
       </c>
       <c r="G19" s="52"/>
       <c r="H19" s="52"/>
-      <c r="I19" s="170" t="s">
-        <v>78</v>
-      </c>
-      <c r="J19" s="168">
+      <c r="I19" s="166" t="s">
+        <v>77</v>
+      </c>
+      <c r="J19" s="164">
         <v>7</v>
       </c>
-      <c r="K19" s="167"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K19" s="163"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="52">
-        <f>11*L16+6*L17</f>
-        <v>47</v>
-      </c>
-      <c r="D20" s="52">
+      <c r="B20" s="49">
+        <f>12*K16+8*K17+1*K18</f>
+        <v>72</v>
+      </c>
+      <c r="D20" s="49">
         <f>27*4</f>
         <v>108</v>
       </c>
       <c r="E20" s="52"/>
-      <c r="F20" s="52">
+      <c r="F20" s="49">
         <f>27*3</f>
         <v>81</v>
       </c>
@@ -5089,16 +5103,10 @@
       <c r="H20" s="52"/>
       <c r="I20" s="52"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C21">
-        <f>B20+F20</f>
-        <v>128</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J22" s="134"/>
-    </row>
-    <row r="23" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J22" s="131"/>
+    </row>
+    <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
         <v>22</v>
       </c>
@@ -5124,14 +5132,14 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="96" t="s">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="94" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="90" t="s">
+      <c r="B24" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="75">
+      <c r="C24" s="73">
         <f>0.047993-39.9546183847</f>
         <v>-39.9066253847</v>
       </c>
@@ -5148,121 +5156,121 @@
         <v>0.24820362629999693</v>
       </c>
       <c r="G24" s="28">
-        <f t="shared" ref="G24:G28" si="0">F24*627.503</f>
+        <f t="shared" ref="G24:G27" si="0">F24*627.503</f>
         <v>155.74852011412699</v>
       </c>
-      <c r="H24" s="68">
-        <f t="shared" ref="H24:H38" si="1">ABS(G24-$A$2)</f>
+      <c r="H24" s="66">
+        <f t="shared" ref="H24:H27" si="1">ABS(G24-$A$2)</f>
         <v>52.448520114126993</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="97" t="s">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="95" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="91" t="s">
+      <c r="B25" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="124">
+      <c r="C25" s="122">
         <f>-40.1796710348+0.047233</f>
         <v>-40.132438034800003</v>
       </c>
-      <c r="D25" s="124">
+      <c r="D25" s="122">
         <f>0.030992-39.4272972899</f>
         <v>-39.396305289899999</v>
       </c>
-      <c r="E25" s="125">
+      <c r="E25" s="3">
         <f>'H2=2H'!D25/2</f>
         <v>-0.49823299999999998</v>
       </c>
-      <c r="F25" s="125">
+      <c r="F25" s="3">
         <f t="shared" ref="F25:F27" si="2">ABS(C25-(D25+E25))</f>
         <v>0.23789974490000532</v>
       </c>
-      <c r="G25" s="125">
+      <c r="G25" s="3">
         <f t="shared" si="0"/>
         <v>149.28280362398806</v>
       </c>
-      <c r="H25" s="69">
+      <c r="H25" s="67">
         <f t="shared" si="1"/>
         <v>45.982803623988062</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="97" t="s">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="95" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="91" t="s">
+      <c r="B26" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="136">
+      <c r="C26" s="133">
         <f xml:space="preserve"> 0.046961-40.1720831941</f>
         <v>-40.125122194099994</v>
       </c>
-      <c r="D26" s="124">
+      <c r="D26" s="122">
         <f>-39.4213182026+0.03059</f>
         <v>-39.390728202600002</v>
       </c>
-      <c r="E26" s="125">
+      <c r="E26" s="3">
         <f>'H2=2H'!D26/2</f>
         <v>-0.499278</v>
       </c>
-      <c r="F26" s="125">
+      <c r="F26" s="3">
         <f t="shared" si="2"/>
         <v>0.2351159914999954</v>
       </c>
-      <c r="G26" s="125">
+      <c r="G26" s="3">
         <f t="shared" si="0"/>
         <v>147.53599001422162</v>
       </c>
-      <c r="H26" s="69">
+      <c r="H26" s="67">
         <f t="shared" si="1"/>
         <v>44.235990014221628</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="98" t="s">
+    <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="96" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="92" t="s">
+      <c r="B27" s="90" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="124">
+      <c r="C27" s="122">
         <f>-40.1740602196+ 0.046689</f>
         <v>-40.127371219600001</v>
       </c>
-      <c r="D27" s="124">
+      <c r="D27" s="122">
         <f>0.030731-39.4243833839</f>
         <v>-39.393652383899997</v>
       </c>
-      <c r="E27" s="125">
+      <c r="E27" s="3">
         <f>'H2=2H'!D27/2</f>
         <v>-0.499334</v>
       </c>
-      <c r="F27" s="125">
+      <c r="F27" s="3">
         <f t="shared" si="2"/>
         <v>0.23438483570000557</v>
       </c>
-      <c r="G27" s="125">
+      <c r="G27" s="3">
         <f t="shared" si="0"/>
         <v>147.07718755626061</v>
       </c>
-      <c r="H27" s="69">
+      <c r="H27" s="67">
         <f t="shared" si="1"/>
         <v>43.777187556260614</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="141" t="s">
+    <row r="28" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="138" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="140" t="s">
+      <c r="B28" s="137" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="75">
+      <c r="C28" s="73">
         <v>-40.255999000000003</v>
       </c>
-      <c r="D28" s="75">
+      <c r="D28" s="73">
         <v>-39.592337999999998</v>
       </c>
       <c r="E28" s="28">
@@ -5270,201 +5278,201 @@
         <v>-0.497311</v>
       </c>
       <c r="F28" s="28">
-        <f>ABS(C28-(D28+E28))</f>
+        <f t="shared" ref="F28:F35" si="3">ABS(C28-(D28+E28))</f>
         <v>0.16635000000000133</v>
       </c>
       <c r="G28" s="28">
-        <f t="shared" ref="G28:G30" si="3">F28*628.5095</f>
+        <f t="shared" ref="G28:G30" si="4">F28*628.5095</f>
         <v>104.55255532500084</v>
       </c>
-      <c r="H28" s="137">
-        <f>ABS(G28-$A$2)</f>
+      <c r="H28" s="134">
+        <f t="shared" ref="H28:H35" si="5">ABS(G28-$A$2)</f>
         <v>1.2525553250008414</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="160" t="s">
+    <row r="29" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="157" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="148" t="s">
+      <c r="B29" s="145" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="161">
+      <c r="C29" s="158">
         <v>-40.481363999999999</v>
       </c>
-      <c r="D29" s="161">
+      <c r="D29" s="158">
         <v>-39.817515</v>
       </c>
-      <c r="E29" s="162">
+      <c r="E29" s="159">
         <f>'H2=2H'!D30/2</f>
         <v>-0.50027299999999997</v>
       </c>
-      <c r="F29" s="162">
-        <f>ABS(C29-(D29+E29))</f>
+      <c r="F29" s="159">
+        <f t="shared" si="3"/>
         <v>0.16357599999999906</v>
       </c>
-      <c r="G29" s="148">
-        <f t="shared" si="3"/>
+      <c r="G29" s="145">
+        <f t="shared" si="4"/>
         <v>102.80906997199941</v>
       </c>
-      <c r="H29" s="143">
-        <f>ABS(G29-$A$2)</f>
+      <c r="H29" s="140">
+        <f t="shared" si="5"/>
         <v>0.49093002800059082</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="147" t="s">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="144" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="84" t="s">
+      <c r="B30" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="C30" s="124">
+      <c r="C30" s="122">
         <v>-40.472019000000003</v>
       </c>
-      <c r="D30" s="124">
+      <c r="D30" s="122">
         <v>-39.809696000000002</v>
       </c>
-      <c r="E30" s="125">
+      <c r="E30" s="3">
         <f>'H2=2H'!D31/2</f>
         <v>-0.50125799999999998</v>
       </c>
-      <c r="F30" s="125">
-        <f>ABS(C30-(D30+E30))</f>
+      <c r="F30" s="3">
+        <f t="shared" si="3"/>
         <v>0.16106500000000068</v>
       </c>
-      <c r="G30" s="125">
-        <f t="shared" si="3"/>
+      <c r="G30" s="3">
+        <f t="shared" si="4"/>
         <v>101.23088261750043</v>
       </c>
-      <c r="H30" s="80">
-        <f>ABS(G30-$A$2)</f>
+      <c r="H30" s="78">
+        <f t="shared" si="5"/>
         <v>2.0691173824995701</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="144" t="s">
+    <row r="31" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="141" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="146" t="s">
+      <c r="B31" s="143" t="s">
         <v>20</v>
       </c>
-      <c r="C31" s="145">
+      <c r="C31" s="142">
         <v>-40.476407000000002</v>
       </c>
-      <c r="D31" s="145">
+      <c r="D31" s="142">
         <v>-39.814703999999999</v>
       </c>
-      <c r="E31" s="145">
+      <c r="E31" s="142">
         <f>'H2=2H'!D32/2</f>
         <v>-0.50165700000000002</v>
       </c>
-      <c r="F31" s="145">
-        <f>ABS(C31-(D31+E31))</f>
+      <c r="F31" s="142">
+        <f t="shared" si="3"/>
         <v>0.16004600000000124</v>
       </c>
-      <c r="G31" s="145">
+      <c r="G31" s="142">
         <f>F31*627.503</f>
         <v>100.42934513800078</v>
       </c>
-      <c r="H31" s="72">
-        <f>ABS(G31-$A$2)</f>
+      <c r="H31" s="70">
+        <f t="shared" si="5"/>
         <v>2.8706548619992134</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="99" t="s">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="97" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="94" t="s">
+      <c r="B32" s="92" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="124">
+      <c r="C32" s="122">
         <f>0.04641-40.075513138533</f>
         <v>-40.029103138532996</v>
       </c>
-      <c r="D32" s="124">
+      <c r="D32" s="122">
         <f>0.030387-39.418237764978</f>
         <v>-39.387850764978005</v>
       </c>
-      <c r="E32" s="125">
+      <c r="E32" s="3">
         <f>'H2=2H'!D34/2</f>
         <v>-0.49619863601800002</v>
       </c>
-      <c r="F32" s="125">
-        <f>ABS(C32-(D32+E32))</f>
+      <c r="F32" s="3">
+        <f t="shared" si="3"/>
         <v>0.14505373753699047</v>
       </c>
-      <c r="G32" s="125">
+      <c r="G32" s="3">
         <f>F32*628.5095</f>
         <v>91.167652052505105</v>
       </c>
-      <c r="H32" s="69">
-        <f>ABS(G32-$A$2)</f>
+      <c r="H32" s="67">
+        <f t="shared" si="5"/>
         <v>12.132347947494893</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="97" t="s">
+      <c r="A33" s="95" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="91" t="s">
+      <c r="B33" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="124">
+      <c r="C33" s="122">
         <f>0.046239-40.365953154884</f>
         <v>-40.319714154883997</v>
       </c>
-      <c r="D33" s="124">
+      <c r="D33" s="122">
         <f>-39.696334920752+0.030785</f>
         <v>-39.665549920751999</v>
       </c>
-      <c r="E33" s="125">
+      <c r="E33" s="3">
         <f>'H2=2H'!D35/2</f>
         <v>-0.49823290920199997</v>
       </c>
-      <c r="F33" s="125">
-        <f>ABS(C33-(D33+E33))</f>
+      <c r="F33" s="3">
+        <f t="shared" si="3"/>
         <v>0.15593132492999473</v>
       </c>
-      <c r="G33" s="125">
+      <c r="G33" s="3">
         <f>F33*628.5095</f>
         <v>98.004319066088527</v>
       </c>
-      <c r="H33" s="69">
-        <f>ABS(G33-$A$2)</f>
+      <c r="H33" s="67">
+        <f t="shared" si="5"/>
         <v>5.2956809339114699</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="97" t="s">
+      <c r="A34" s="95" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="91" t="s">
+      <c r="B34" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="C34" s="124">
+      <c r="C34" s="122">
         <f>0.045384-40.360174937417</f>
         <v>-40.314790937417001</v>
       </c>
-      <c r="D34" s="124">
+      <c r="D34" s="122">
         <f>0.030032-39.690639486241</f>
         <v>-39.660607486240998</v>
       </c>
-      <c r="E34" s="125">
+      <c r="E34" s="3">
         <f>'H2=2H'!D36/2</f>
         <v>-0.49927840342000002</v>
       </c>
-      <c r="F34" s="125">
-        <f>ABS(C34-(D34+E34))</f>
+      <c r="F34" s="3">
+        <f t="shared" si="3"/>
         <v>0.154905047756003</v>
       </c>
-      <c r="G34" s="125">
+      <c r="G34" s="3">
         <f>F34*628.5095</f>
         <v>97.359294112601575</v>
       </c>
-      <c r="H34" s="69">
-        <f>ABS(G34-$A$2)</f>
+      <c r="H34" s="67">
+        <f t="shared" si="5"/>
         <v>5.9407058873984226</v>
       </c>
     </row>
@@ -5472,14 +5480,14 @@
       <c r="A35" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="B35" s="93" t="s">
+      <c r="B35" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="C35" s="128">
+      <c r="C35" s="125">
         <f>0.044992-40.3677263387</f>
         <v>-40.322734338700002</v>
       </c>
-      <c r="D35" s="128">
+      <c r="D35" s="125">
         <f>-39.698265572358+0.030157</f>
         <v>-39.668108572357994</v>
       </c>
@@ -5488,15 +5496,15 @@
         <v>-0.49933431544000001</v>
       </c>
       <c r="F35" s="31">
-        <f>ABS(C35-(D35+E35))</f>
+        <f t="shared" si="3"/>
         <v>0.15529145090200558</v>
       </c>
       <c r="G35" s="31">
         <f>F35*627.503</f>
         <v>97.44585131536121</v>
       </c>
-      <c r="H35" s="95">
-        <f>ABS(G35-$A$2)</f>
+      <c r="H35" s="93">
+        <f t="shared" si="5"/>
         <v>5.8541486846387869</v>
       </c>
     </row>
@@ -5588,386 +5596,386 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="82" t="s">
+      <c r="A52" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="B52" s="77" t="s">
+      <c r="B52" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="C52" s="75">
+      <c r="C52" s="73">
         <f>0.04799105-39.97687756</f>
         <v>-39.928886509999998</v>
       </c>
-      <c r="D52" s="75">
+      <c r="D52" s="73">
         <f>0.03067971-39.33939052</f>
         <v>-39.308710810000001</v>
       </c>
-      <c r="E52" s="75">
+      <c r="E52" s="73">
         <f>'H2=2H'!D52/2</f>
         <v>-0.49619864000000002</v>
       </c>
       <c r="F52" s="28">
-        <f t="shared" ref="F52:F66" si="4">ABS(C52-(E52+D52))</f>
+        <f t="shared" ref="F52:F55" si="6">ABS(C52-(E52+D52))</f>
         <v>0.12397705999999431</v>
       </c>
       <c r="G52" s="28">
-        <f t="shared" ref="G52:G56" si="5">F52*627.503</f>
+        <f t="shared" ref="G52:G55" si="7">F52*627.503</f>
         <v>77.795977081176432</v>
       </c>
-      <c r="H52" s="68">
+      <c r="H52" s="66">
         <f>ABS(G52-$A$2)</f>
         <v>25.504022918823566</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="83" t="s">
+      <c r="A53" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="B53" s="78" t="s">
+      <c r="B53" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="C53" s="124">
+      <c r="C53" s="122">
         <f>0.04723855-40.20210442</f>
         <v>-40.154865869999995</v>
       </c>
-      <c r="D53" s="124">
+      <c r="D53" s="122">
         <f>0.03072263-39.56272436</f>
         <v>-39.532001729999998</v>
       </c>
-      <c r="E53" s="124">
+      <c r="E53" s="122">
         <f>'H2=2H'!D57/2</f>
         <v>-0.49686205</v>
       </c>
-      <c r="F53" s="125">
-        <f t="shared" si="4"/>
+      <c r="F53" s="3">
+        <f t="shared" si="6"/>
         <v>0.12600209000000007</v>
       </c>
-      <c r="G53" s="125">
-        <f t="shared" si="5"/>
+      <c r="G53" s="3">
+        <f t="shared" si="7"/>
         <v>79.066689481270046</v>
       </c>
-      <c r="H53" s="69">
-        <f t="shared" ref="H53:H66" si="6">ABS(G53-$A$2)</f>
+      <c r="H53" s="67">
+        <f t="shared" ref="H53:H55" si="8">ABS(G53-$A$2)</f>
         <v>24.233310518729951</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="83" t="s">
+      <c r="A54" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="B54" s="78" t="s">
+      <c r="B54" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="C54" s="124">
+      <c r="C54" s="122">
         <f>0.04696499-40.19871198</f>
         <v>-40.151746989999999</v>
       </c>
-      <c r="D54" s="124">
+      <c r="D54" s="122">
         <f>0.03050811-39.559645</f>
         <v>-39.529136890000004</v>
       </c>
-      <c r="E54" s="124">
+      <c r="E54" s="122">
         <f>'H2=2H'!D58/2</f>
         <v>-0.49785866000000001</v>
       </c>
-      <c r="F54" s="125">
-        <f t="shared" si="4"/>
+      <c r="F54" s="3">
+        <f t="shared" si="6"/>
         <v>0.12475143999999716</v>
       </c>
-      <c r="G54" s="125">
-        <f t="shared" si="5"/>
+      <c r="G54" s="3">
+        <f t="shared" si="7"/>
         <v>78.281902854318218</v>
       </c>
-      <c r="H54" s="69">
-        <f t="shared" si="6"/>
+      <c r="H54" s="67">
+        <f t="shared" si="8"/>
         <v>25.018097145681779</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="83" t="s">
+      <c r="A55" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="B55" s="78" t="s">
+      <c r="B55" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="C55" s="124">
+      <c r="C55" s="122">
         <f>0.04669113-40.19963317</f>
         <v>-40.152942039999999</v>
       </c>
-      <c r="D55" s="124">
+      <c r="D55" s="122">
         <f>0.0304622-39.56166455</f>
         <v>-39.531202350000001</v>
       </c>
-      <c r="E55" s="124">
+      <c r="E55" s="122">
         <f>'H2=2H'!D59/2</f>
         <v>-0.49826981999999997</v>
       </c>
-      <c r="F55" s="125">
-        <f t="shared" si="4"/>
+      <c r="F55" s="3">
+        <f t="shared" si="6"/>
         <v>0.12346987000000098</v>
       </c>
-      <c r="G55" s="125">
-        <f t="shared" si="5"/>
+      <c r="G55" s="3">
+        <f t="shared" si="7"/>
         <v>77.477713834610626</v>
       </c>
-      <c r="H55" s="69">
-        <f t="shared" si="6"/>
+      <c r="H55" s="67">
+        <f t="shared" si="8"/>
         <v>25.822286165389372</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="82" t="s">
+      <c r="A56" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="B56" s="79" t="s">
+      <c r="B56" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="C56" s="75">
+      <c r="C56" s="73">
         <f>0.04556746-40.26560309</f>
         <v>-40.220035629999998</v>
       </c>
-      <c r="D56" s="75">
+      <c r="D56" s="73">
         <f>0.02982904-39.58894174</f>
         <v>-39.5591127</v>
       </c>
-      <c r="E56" s="75">
+      <c r="E56" s="73">
         <f>'H2=2H'!D56/2</f>
         <v>-0.49388664999999998</v>
       </c>
       <c r="F56" s="28">
-        <f>ABS(C56-(E56+D56))</f>
+        <f t="shared" ref="F56:F63" si="9">ABS(C56-(E56+D56))</f>
         <v>0.16703627999999782</v>
       </c>
       <c r="G56" s="28">
-        <f t="shared" ref="G56:G58" si="7">F56*628.5095</f>
+        <f t="shared" ref="G56:G58" si="10">F56*628.5095</f>
         <v>104.98388882465864</v>
       </c>
-      <c r="H56" s="68">
-        <f>ABS(G56-$A$2)</f>
+      <c r="H56" s="66">
+        <f t="shared" ref="H56:H63" si="11">ABS(G56-$A$2)</f>
         <v>1.6838888246586379</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="143" t="s">
+      <c r="A57" s="140" t="s">
         <v>30</v>
       </c>
-      <c r="B57" s="163" t="s">
+      <c r="B57" s="160" t="s">
         <v>29</v>
       </c>
-      <c r="C57" s="73">
+      <c r="C57" s="71">
         <f>0.0447281-40.48935929</f>
         <v>-40.444631190000003</v>
       </c>
-      <c r="D57" s="73">
+      <c r="D57" s="71">
         <f>0.02975103-39.81284253</f>
         <v>-39.783091499999998</v>
       </c>
-      <c r="E57" s="73">
+      <c r="E57" s="71">
         <f>'H2=2H'!D57/2</f>
         <v>-0.49686205</v>
       </c>
-      <c r="F57" s="74">
-        <f>ABS(C57-(E57+D57))</f>
+      <c r="F57" s="72">
+        <f t="shared" si="9"/>
         <v>0.16467764000000784</v>
       </c>
-      <c r="G57" s="149">
-        <f t="shared" si="7"/>
+      <c r="G57" s="146">
+        <f t="shared" si="10"/>
         <v>103.50146117758493</v>
       </c>
-      <c r="H57" s="143">
-        <f>ABS(G57-$A$2)</f>
+      <c r="H57" s="140">
+        <f t="shared" si="11"/>
         <v>0.20146117758493176</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="83" t="s">
+      <c r="A58" s="81" t="s">
         <v>30</v>
       </c>
-      <c r="B58" s="80" t="s">
+      <c r="B58" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="C58" s="124">
+      <c r="C58" s="122">
         <f>0.04430613-40.48037915</f>
         <v>-40.436073019999995</v>
       </c>
-      <c r="D58" s="124">
+      <c r="D58" s="122">
         <f>0.02930089-39.80535126</f>
         <v>-39.77605037</v>
       </c>
-      <c r="E58" s="124">
+      <c r="E58" s="122">
         <f>'H2=2H'!D58/2</f>
         <v>-0.49785866000000001</v>
       </c>
-      <c r="F58" s="125">
-        <f>ABS(C58-(E58+D58))</f>
+      <c r="F58" s="3">
+        <f t="shared" si="9"/>
         <v>0.16216398999999626</v>
       </c>
-      <c r="G58" s="125">
-        <f t="shared" si="7"/>
+      <c r="G58" s="3">
+        <f t="shared" si="10"/>
         <v>101.92160827290265</v>
       </c>
-      <c r="H58" s="69">
-        <f>ABS(G58-$A$2)</f>
+      <c r="H58" s="67">
+        <f t="shared" si="11"/>
         <v>1.3783917270973518</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="142" t="s">
+      <c r="A59" s="139" t="s">
         <v>30</v>
       </c>
-      <c r="B59" s="138" t="s">
+      <c r="B59" s="135" t="s">
         <v>20</v>
       </c>
-      <c r="C59" s="128">
+      <c r="C59" s="125">
         <f>0.04418519-40.4846623</f>
         <v>-40.440477109999996</v>
       </c>
-      <c r="D59" s="128">
+      <c r="D59" s="125">
         <f>0.0295803-39.81070267</f>
         <v>-39.781122369999999</v>
       </c>
-      <c r="E59" s="128">
+      <c r="E59" s="125">
         <f>'H2=2H'!D59/2</f>
         <v>-0.49826981999999997</v>
       </c>
       <c r="F59" s="31">
-        <f>ABS(C59-(E59+D59))</f>
+        <f t="shared" si="9"/>
         <v>0.16108492000000041</v>
       </c>
       <c r="G59" s="31">
         <f>F59*627.503</f>
         <v>101.08127055476027</v>
       </c>
-      <c r="H59" s="95">
-        <f>ABS(G59-$A$2)</f>
+      <c r="H59" s="93">
+        <f t="shared" si="11"/>
         <v>2.218729445239731</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="66" t="s">
-        <v>65</v>
-      </c>
-      <c r="B60" s="81" t="s">
+      <c r="A60" s="64" t="s">
+        <v>64</v>
+      </c>
+      <c r="B60" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="C60" s="124">
+      <c r="C60" s="122">
         <f>0.04641571-40.075513138533</f>
         <v>-40.029097428532999</v>
       </c>
-      <c r="D60" s="124">
+      <c r="D60" s="122">
         <f>-39.41962345+0.03102493</f>
         <v>-39.388598520000002</v>
       </c>
-      <c r="E60" s="124">
+      <c r="E60" s="122">
         <f xml:space="preserve"> -0.49619864</f>
         <v>-0.49619864000000002</v>
       </c>
-      <c r="F60" s="125">
-        <f>ABS(C60-(E60+D60))</f>
+      <c r="F60" s="3">
+        <f t="shared" si="9"/>
         <v>0.14430026853299438</v>
       </c>
-      <c r="G60" s="125">
+      <c r="G60" s="3">
         <f>F60*628.5095</f>
         <v>90.694089625538027</v>
       </c>
-      <c r="H60" s="69">
-        <f>ABS(G60-$A$2)</f>
+      <c r="H60" s="67">
+        <f t="shared" si="11"/>
         <v>12.60591037446197</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="66" t="s">
-        <v>65</v>
-      </c>
-      <c r="B61" s="69" t="s">
+      <c r="A61" s="64" t="s">
+        <v>64</v>
+      </c>
+      <c r="B61" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="C61" s="124">
+      <c r="C61" s="122">
         <f>0.04623424-40.36465269</f>
         <v>-40.318418450000003</v>
       </c>
-      <c r="D61" s="124">
+      <c r="D61" s="122">
         <f>0.03085394-39.69405727</f>
         <v>-39.663203330000002</v>
       </c>
-      <c r="E61" s="124">
+      <c r="E61" s="122">
         <f>'H2=2H'!D61/2</f>
         <v>-0.49823290999999997</v>
       </c>
-      <c r="F61" s="125">
-        <f>ABS(C61-(E61+D61))</f>
+      <c r="F61" s="3">
+        <f t="shared" si="9"/>
         <v>0.15698221000000245</v>
       </c>
-      <c r="G61" s="125">
+      <c r="G61" s="3">
         <f>F61*628.5095</f>
         <v>98.664810315996547</v>
       </c>
-      <c r="H61" s="69">
-        <f>ABS(G61-$A$2)</f>
+      <c r="H61" s="67">
+        <f t="shared" si="11"/>
         <v>4.6351896840034499</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="66" t="s">
-        <v>65</v>
-      </c>
-      <c r="B62" s="69" t="s">
+      <c r="A62" s="64" t="s">
+        <v>64</v>
+      </c>
+      <c r="B62" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="C62" s="124">
+      <c r="C62" s="122">
         <f>0.04539751-40.36017514</f>
         <v>-40.314777630000002</v>
       </c>
-      <c r="D62" s="139">
+      <c r="D62" s="136">
         <f>0.0305872-39.69297239</f>
         <v>-39.662385190000002</v>
       </c>
-      <c r="E62" s="124">
+      <c r="E62" s="122">
         <f>'H2=2H'!D62/2</f>
         <v>-0.49933432</v>
       </c>
-      <c r="F62" s="125">
-        <f>ABS(C62-(E62+D62))</f>
+      <c r="F62" s="3">
+        <f t="shared" si="9"/>
         <v>0.15305811999999719</v>
       </c>
-      <c r="G62" s="125">
+      <c r="G62" s="3">
         <f>F62*628.5095</f>
         <v>96.198482472138238</v>
       </c>
-      <c r="H62" s="69">
-        <f>ABS(G62-$A$2)</f>
+      <c r="H62" s="67">
+        <f t="shared" si="11"/>
         <v>7.101517527861759</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="67" t="s">
-        <v>65</v>
-      </c>
-      <c r="B63" s="95" t="s">
+      <c r="A63" s="65" t="s">
+        <v>64</v>
+      </c>
+      <c r="B63" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="C63" s="128">
+      <c r="C63" s="125">
         <f>0.04500432-40.36772651</f>
         <v>-40.32272219</v>
       </c>
-      <c r="D63" s="128">
+      <c r="D63" s="125">
         <f>0.03072783-39.70082578</f>
         <v>-39.670097950000006</v>
       </c>
-      <c r="E63" s="128">
+      <c r="E63" s="125">
         <f>'H2=2H'!D63/2</f>
         <v>-0.49933432</v>
       </c>
       <c r="F63" s="31">
-        <f>ABS(C63-(E63+D63))</f>
+        <f t="shared" si="9"/>
         <v>0.15328991999999175</v>
       </c>
       <c r="G63" s="31">
         <f>F63*627.503</f>
         <v>96.189884669754832</v>
       </c>
-      <c r="H63" s="95">
-        <f>ABS(G63-$A$2)</f>
+      <c r="H63" s="93">
+        <f t="shared" si="11"/>
         <v>7.110115330245165</v>
       </c>
     </row>
